--- a/shops_template.xlsx
+++ b/shops_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="377">
   <si>
     <t>name</t>
   </si>
@@ -79,103 +79,685 @@
     <t>isActive</t>
   </si>
   <si>
-    <t>Golden Palace Restaurant</t>
-  </si>
-  <si>
-    <t>ရွှေနန်းတော် စားသောက်ဆိုင်</t>
-  </si>
-  <si>
-    <t>golden-palace-restaurant</t>
+    <t>primaryPhotoUrl</t>
+  </si>
+  <si>
+    <t>Inle Traditional Food &amp; Shan Noodle</t>
+  </si>
+  <si>
+    <t>အင်းလေး ရှမ်းခေါက်ဆွဲ</t>
+  </si>
+  <si>
+    <t>inle-traditional-food</t>
   </si>
   <si>
     <t>Restaurant</t>
   </si>
   <si>
-    <t>16.7967</t>
-  </si>
-  <si>
-    <t>96.1610</t>
-  </si>
-  <si>
-    <t>123 Main Street, Yangon</t>
-  </si>
-  <si>
-    <t>Golden Palace</t>
+    <t>11/5 Pracha Rat Bamphen 11 Alley, Huai Khwang, Bangkok 10310</t>
+  </si>
+  <si>
+    <t>Inle Traditional Food</t>
+  </si>
+  <si>
+    <t>Shan Noodle</t>
+  </si>
+  <si>
+    <t>Huai Khwang</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>02-123-4567</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Authentic Shan noodles and Inle style food</t>
+  </si>
+  <si>
+    <t>စစ်မှန်သော ရှမ်းခေါက်ဆွဲ နှင့် အင်းလေးအစားအစာ</t>
+  </si>
+  <si>
+    <t>Shan Noodle, Tofu Nway</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=inle+shop</t>
+  </si>
+  <si>
+    <t>Shwe Htee Restaurant</t>
+  </si>
+  <si>
+    <t>ရွှေထီး စားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>shwe-htee-restaurant</t>
+  </si>
+  <si>
+    <t>Ocean Tower 2, Sukhumvit 21 Soi 3, Watthana, Bangkok 10110</t>
+  </si>
+  <si>
+    <t>Shwe Htee</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Watthana</t>
+  </si>
+  <si>
+    <t>02-234-5678</t>
+  </si>
+  <si>
+    <t>Popular for lunch and traditional curries</t>
+  </si>
+  <si>
+    <t>နေ့လည်စာအတွက် လူကြိုက်များသော ဆိုင်</t>
+  </si>
+  <si>
+    <t>Curry, Tea Leaf Salad</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=shwe-htee+shop</t>
+  </si>
+  <si>
+    <t>AYAR House Bar &amp; Restaurant</t>
+  </si>
+  <si>
+    <t>ဧရာ ဟောက်စ်</t>
+  </si>
+  <si>
+    <t>ayar-house</t>
+  </si>
+  <si>
+    <t>35, 2 Ratchaprasong Road, Pathum Wan, Bangkok 10330</t>
+  </si>
+  <si>
+    <t>AYAR House</t>
+  </si>
+  <si>
+    <t>Bar &amp; Grill</t>
+  </si>
+  <si>
+    <t>Pathum Wan</t>
+  </si>
+  <si>
+    <t>02-345-6789</t>
+  </si>
+  <si>
+    <t>Nice atmosphere with Burmese classics</t>
+  </si>
+  <si>
+    <t>လေကောင်းလေသန့် ရရှိနိုင်သော ဆိုင်</t>
+  </si>
+  <si>
+    <t>BBQ, Beer, Mohinga</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=ayar+shop</t>
+  </si>
+  <si>
+    <t>KALYANA Restaurant</t>
+  </si>
+  <si>
+    <t>ကလျာဏ စားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>kalyana-restaurant</t>
+  </si>
+  <si>
+    <t>110 Ratchararob Road, Ratchathewi, Bangkok 10400</t>
+  </si>
+  <si>
+    <t>KALYANA</t>
   </si>
   <si>
     <t>Fine Dining</t>
   </si>
   <si>
-    <t>Sanchaung</t>
-  </si>
-  <si>
-    <t>Yangon</t>
-  </si>
-  <si>
-    <t>+95-1-234567</t>
-  </si>
-  <si>
-    <t>info@goldenpalace.com</t>
-  </si>
-  <si>
-    <t>Best restaurant in Yangon</t>
-  </si>
-  <si>
-    <t>ရန်ကုန်တွင် အကောင်းဆုံး စားသောက်ဆိုင်</t>
-  </si>
-  <si>
-    <t>Seafood, BBQ, Traditional</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Shwe Myanmar Cafe</t>
-  </si>
-  <si>
-    <t>ရွှေမြန်မာ ကော်ဖီဆိုင်</t>
-  </si>
-  <si>
-    <t>shwe-myanmar-cafe</t>
-  </si>
-  <si>
-    <t>Cafe</t>
-  </si>
-  <si>
-    <t>16.8051</t>
-  </si>
-  <si>
-    <t>96.1537</t>
-  </si>
-  <si>
-    <t>456 Coffee Lane, Yangon</t>
+    <t>Ratchathewi</t>
+  </si>
+  <si>
+    <t>02-456-7890</t>
+  </si>
+  <si>
+    <t>Clean and high-quality Burmese food</t>
+  </si>
+  <si>
+    <t>သန့်ရှင်းပြီး အရည်အသွေးမြင့် မြန်မာအစားအစာ</t>
+  </si>
+  <si>
+    <t>Danbauk, Curry</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=kalyana+shop</t>
+  </si>
+  <si>
+    <t>Feel Restaurant</t>
+  </si>
+  <si>
+    <t>ဖီးလ် စားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>feel-restaurant-bkk</t>
+  </si>
+  <si>
+    <t>Soi Lumphini 1, Ratchadamri Road, Bangkok</t>
+  </si>
+  <si>
+    <t>Feel</t>
+  </si>
+  <si>
+    <t>Chain Restaurant</t>
+  </si>
+  <si>
+    <t>02-567-8901</t>
+  </si>
+  <si>
+    <t>info@feel.com.mm</t>
+  </si>
+  <si>
+    <t>Famous chain from Myanmar</t>
+  </si>
+  <si>
+    <t>မြန်မာနိုင်ငံမှ နာမည်ကြီး ဆိုင်ခွဲ</t>
+  </si>
+  <si>
+    <t>Mohinga, Breakfast</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=feel+shop</t>
+  </si>
+  <si>
+    <t>Bagan Myay</t>
+  </si>
+  <si>
+    <t>ပုဂံမြေ</t>
+  </si>
+  <si>
+    <t>bagan-myay</t>
+  </si>
+  <si>
+    <t>Phetchaburi Road, near Pantip Plaza, Bangkok</t>
+  </si>
+  <si>
+    <t>Casual Dining</t>
+  </si>
+  <si>
+    <t>081-234-5678</t>
+  </si>
+  <si>
+    <t>Convenient spot near shopping malls</t>
+  </si>
+  <si>
+    <t>ဈေးဝယ်စင်တာများအနီး အဆင်ပြေသော နေရာ</t>
+  </si>
+  <si>
+    <t>Fried Rice, Noodles</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=bagan+shop</t>
+  </si>
+  <si>
+    <t>Mandalay Food House</t>
+  </si>
+  <si>
+    <t>မန္တလေး အစားအစာ</t>
+  </si>
+  <si>
+    <t>mandalay-food-house</t>
+  </si>
+  <si>
+    <t>Soi Phetchaburi 15, Bangkok</t>
+  </si>
+  <si>
+    <t>Mandalay Food</t>
+  </si>
+  <si>
+    <t>Mandalay Style</t>
+  </si>
+  <si>
+    <t>089-876-5432</t>
+  </si>
+  <si>
+    <t>Specializing in Mandalay dishes</t>
+  </si>
+  <si>
+    <t>မန္တလေး အစားအစာများ အထူးပြု</t>
+  </si>
+  <si>
+    <t>Mee Shay, Mandalay Noodles</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=mandalay+shop</t>
+  </si>
+  <si>
+    <t>89 Myanmar Foods</t>
+  </si>
+  <si>
+    <t>၈၉ မြန်မာ အစားအစာ</t>
+  </si>
+  <si>
+    <t>89-myanmar-foods</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>D-16, 1599 Sukhumvit Rd, Phra Khanong, Bangkok 10110</t>
+  </si>
+  <si>
+    <t>89 Foods</t>
+  </si>
+  <si>
+    <t>Grocery Store</t>
+  </si>
+  <si>
+    <t>082-345-6789</t>
+  </si>
+  <si>
+    <t>Wide variety of Myanmar snacks and ingredients</t>
+  </si>
+  <si>
+    <t>မြန်မာ မုန့်နှင့် ဟင်းချက်စရာ စုံလင်</t>
+  </si>
+  <si>
+    <t>Tea leaves, Pickles</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=89+shop</t>
+  </si>
+  <si>
+    <t>A Nyar Tar</t>
+  </si>
+  <si>
+    <t>အညာသား</t>
+  </si>
+  <si>
+    <t>a-nyar-tar</t>
+  </si>
+  <si>
+    <t>10/16 Soi Si Thana Sakun Chai, Khlong Tan Nuea, Bangkok 10110</t>
+  </si>
+  <si>
+    <t>Upper Myanmar Style</t>
+  </si>
+  <si>
+    <t>083-456-7890</t>
+  </si>
+  <si>
+    <t>Upper Myanmar cuisine</t>
+  </si>
+  <si>
+    <t>အညာဒေသ အစားအစာများ</t>
+  </si>
+  <si>
+    <t>Fermented Bean Paste</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=anyartar+shop</t>
+  </si>
+  <si>
+    <t>AB Thai Myanmar Restaurant</t>
+  </si>
+  <si>
+    <t>အေဘီ ထိုင်းမြန်မာ</t>
+  </si>
+  <si>
+    <t>ab-thai-myanmar</t>
+  </si>
+  <si>
+    <t>8/11-8/12, 71 Sukhumvit Road, Phra Khanong, Bangkok 10110</t>
+  </si>
+  <si>
+    <t>AB Thai</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>Phra Khanong</t>
+  </si>
+  <si>
+    <t>084-567-8901</t>
+  </si>
+  <si>
+    <t>Thai and Myanmar dishes</t>
+  </si>
+  <si>
+    <t>ထိုင်း နှင့် မြန်မာ အစားအစာ</t>
+  </si>
+  <si>
+    <t>Tom Yum, Mohinga</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=abthai+shop</t>
+  </si>
+  <si>
+    <t>Delicious Democracy Noodle</t>
+  </si>
+  <si>
+    <t>ဒီမိုကရေစီ ခေါက်ဆွဲ</t>
+  </si>
+  <si>
+    <t>delicious-democracy</t>
+  </si>
+  <si>
+    <t>Near Samyan MRT, Bangkok</t>
+  </si>
+  <si>
+    <t>Democracy Noodle</t>
+  </si>
+  <si>
+    <t>Noodle Shop</t>
+  </si>
+  <si>
+    <t>085-678-9012</t>
+  </si>
+  <si>
+    <t>Popular spot for students and locals</t>
+  </si>
+  <si>
+    <t>ကျောင်းသားများနှင့် ဒေသခံများအကြား နာမည်ကြီး</t>
+  </si>
+  <si>
+    <t>Noodles, Salads</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=democracy+shop</t>
+  </si>
+  <si>
+    <t>Phra Khanong Myanmar Store</t>
+  </si>
+  <si>
+    <t>ဖရာခနောင် မြန်မာဆိုင် ၁</t>
+  </si>
+  <si>
+    <t>phra-khanong-store-1</t>
+  </si>
+  <si>
+    <t>Phra Khanong Market, Bangkok</t>
+  </si>
+  <si>
+    <t>PK Market 1</t>
+  </si>
+  <si>
+    <t>Market Stall</t>
+  </si>
+  <si>
+    <t>090-111-2222</t>
+  </si>
+  <si>
+    <t>Fresh vegetables and ingredients from Myanmar</t>
+  </si>
+  <si>
+    <t>မြန်မာပြည်မှ လတ်ဆတ်သော ဟင်းသီးဟင်းရွက်များ</t>
+  </si>
+  <si>
+    <t>Pennywort, Roselle</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=pk1+shop</t>
+  </si>
+  <si>
+    <t>Daw Hla Grocery</t>
+  </si>
+  <si>
+    <t>ဒေါ်လှ ကုန်စုံဆိုင်</t>
+  </si>
+  <si>
+    <t>daw-hla-grocery</t>
+  </si>
+  <si>
+    <t>Daw Hla</t>
+  </si>
+  <si>
+    <t>090-222-3333</t>
+  </si>
+  <si>
+    <t>Spices and dried goods</t>
+  </si>
+  <si>
+    <t>ဟင်းခတ်အမွှေးအကြိုင် နှင့် အခြောက်အခြမ်း</t>
+  </si>
+  <si>
+    <t>Dried Fish, Shrimp Paste</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=dawhla+shop</t>
+  </si>
+  <si>
+    <t>Bang Bon Myanmar Mart</t>
+  </si>
+  <si>
+    <t>ဘန်ဘွန် မြန်မာ မတ်</t>
+  </si>
+  <si>
+    <t>bang-bon-mart</t>
+  </si>
+  <si>
+    <t>Bang Bon Market, Ekkachai Road, Bangkok</t>
+  </si>
+  <si>
+    <t>Bang Bon Mart</t>
+  </si>
+  <si>
+    <t>Bang Bon</t>
+  </si>
+  <si>
+    <t>091-333-4444</t>
+  </si>
+  <si>
+    <t>Everything from Myanmar</t>
+  </si>
+  <si>
+    <t>မြန်မာပြည်မှ ကုန်ပစ္စည်းစုံ</t>
+  </si>
+  <si>
+    <t>Thanaka, Longyi</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=bangbon+shop</t>
+  </si>
+  <si>
+    <t>Ko Thein Shop</t>
+  </si>
+  <si>
+    <t>ကိုသိန်း ဆိုင်</t>
+  </si>
+  <si>
+    <t>ko-thein-shop</t>
+  </si>
+  <si>
+    <t>Ko Thein</t>
+  </si>
+  <si>
+    <t>091-444-5555</t>
+  </si>
+  <si>
+    <t>Burmese tea and snacks</t>
+  </si>
+  <si>
+    <t>လက်ဖက်ရည် နှင့် မုန့်များ</t>
+  </si>
+  <si>
+    <t>Tea Mix, Lahpet</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=kothein+shop</t>
+  </si>
+  <si>
+    <t>Little Myanmar Shop</t>
+  </si>
+  <si>
+    <t>လစ်တဲလ် မြန်မာ</t>
+  </si>
+  <si>
+    <t>little-myanmar-shop</t>
+  </si>
+  <si>
+    <t>Sukhumvit 71, Phra Khanong, Bangkok</t>
+  </si>
+  <si>
+    <t>Little Myanmar</t>
+  </si>
+  <si>
+    <t>Convenience Store</t>
+  </si>
+  <si>
+    <t>092-555-6666</t>
+  </si>
+  <si>
+    <t>Convenient store for Myanmar items</t>
+  </si>
+  <si>
+    <t>မြန်မာပစ္စည်းများ ဝယ်ယူရန် အဆင်ပြေသော ဆိုင်</t>
+  </si>
+  <si>
+    <t>Cosmetics, Medicine</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=little+shop</t>
+  </si>
+  <si>
+    <t>Shwe Myanmar Grocery</t>
+  </si>
+  <si>
+    <t>ရွှေမြန်မာ ကုန်စုံဆိုင်</t>
+  </si>
+  <si>
+    <t>shwe-myanmar-grocery</t>
+  </si>
+  <si>
+    <t>Pratunam Area, Bangkok</t>
   </si>
   <si>
     <t>Shwe Myanmar</t>
   </si>
   <si>
-    <t>Coffee Shop</t>
-  </si>
-  <si>
-    <t>Kamaryut</t>
-  </si>
-  <si>
-    <t>+95-1-345678</t>
-  </si>
-  <si>
-    <t>contact@shwemyanmar.com</t>
-  </si>
-  <si>
-    <t>Cozy cafe with great coffee</t>
-  </si>
-  <si>
-    <t>ကော်ဖီကောင်းတဲ့ နွေးထွေးတဲ့ဆိုင်</t>
-  </si>
-  <si>
-    <t>Coffee, Pastries, Breakfast</t>
-  </si>
-  <si>
-    <t>FALSE</t>
+    <t>093-666-7777</t>
+  </si>
+  <si>
+    <t>Imported goods from Yangon</t>
+  </si>
+  <si>
+    <t>ရန်ကုန်မှ တိုက်ရိုက်တင်သွင်းသော ပစ္စည်းများ</t>
+  </si>
+  <si>
+    <t>Clothes, Food</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=shwemyanmar+shop</t>
+  </si>
+  <si>
+    <t>Yangon Store</t>
+  </si>
+  <si>
+    <t>ရန်ကုန် စတိုး</t>
+  </si>
+  <si>
+    <t>yangon-store-bkk</t>
+  </si>
+  <si>
+    <t>Ratchaprarop Soi 8, Bangkok</t>
+  </si>
+  <si>
+    <t>General Store</t>
+  </si>
+  <si>
+    <t>094-777-8888</t>
+  </si>
+  <si>
+    <t>General goods</t>
+  </si>
+  <si>
+    <t>အထွေထွေ ကုန်ပစ္စည်း</t>
+  </si>
+  <si>
+    <t>Sim cards, Top up</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=yangon+shop</t>
+  </si>
+  <si>
+    <t>Mahachai Myanmar Seafood</t>
+  </si>
+  <si>
+    <t>မဟာချိုင် ပင်လယ်စာ</t>
+  </si>
+  <si>
+    <t>mahachai-seafood</t>
+  </si>
+  <si>
+    <t>Mahachai Market, Samut Sakhon (Greater Bangkok)</t>
+  </si>
+  <si>
+    <t>Mahachai</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>Samut Sakhon</t>
+  </si>
+  <si>
+    <t>095-888-9999</t>
+  </si>
+  <si>
+    <t>Fresh seafood market popular with Myanmar workers</t>
+  </si>
+  <si>
+    <t>မြန်မာ အလုပ်သမားများကြား ရေပန်းစားသော ပင်လယ်စာဈေး</t>
+  </si>
+  <si>
+    <t>Fresh Fish, Crab</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=mahachai+shop</t>
+  </si>
+  <si>
+    <t>Ramkhamhaeng Myanmar Food</t>
+  </si>
+  <si>
+    <t>ရာမ်ခမ်းဟိုင် မြန်မာ အစားအစာ</t>
+  </si>
+  <si>
+    <t>ramkhamhaeng-food</t>
+  </si>
+  <si>
+    <t>Ramkhamhaeng Soi 24, Bangkok</t>
+  </si>
+  <si>
+    <t>Ramkhamhaeng Food</t>
+  </si>
+  <si>
+    <t>Street Food</t>
+  </si>
+  <si>
+    <t>Bang Kapi</t>
+  </si>
+  <si>
+    <t>096-999-0000</t>
+  </si>
+  <si>
+    <t>Student favorite</t>
+  </si>
+  <si>
+    <t>ကျောင်းသား ကြိုက်</t>
+  </si>
+  <si>
+    <t>Mohinga, Ohn No Khao Swe</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=ram+shop</t>
   </si>
   <si>
     <t>shopSlug</t>
@@ -202,49 +784,346 @@
     <t>isPopular</t>
   </si>
   <si>
-    <t>Main Dishes</t>
-  </si>
-  <si>
-    <t>Grilled Fish</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>MMK</t>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>Noodles</t>
+  </si>
+  <si>
+    <t>Shan Noodle (Soup)</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=shan-soup+food</t>
+  </si>
+  <si>
+    <t>Shan Noodle (Dry)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=shan-dry+food</t>
+  </si>
+  <si>
+    <t>Appetizers</t>
+  </si>
+  <si>
+    <t>Fried Tofu</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=tofu+food</t>
+  </si>
+  <si>
+    <t>Main Course</t>
+  </si>
+  <si>
+    <t>Pork Curry</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=pork-curry+food</t>
   </si>
   <si>
     <t>Chicken Curry</t>
   </si>
   <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>Appetizers</t>
-  </si>
-  <si>
-    <t>Spring Rolls</t>
-  </si>
-  <si>
-    <t>5000</t>
+    <t>https://placehold.co/600x400?text=chicken-curry+food</t>
+  </si>
+  <si>
+    <t>Salads</t>
+  </si>
+  <si>
+    <t>Tea Leaf Salad</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=tea-leaf+food</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Samosa</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=samosa+food</t>
+  </si>
+  <si>
+    <t>Mains</t>
+  </si>
+  <si>
+    <t>Mohinga</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=mohinga+food</t>
+  </si>
+  <si>
+    <t>Beer Snacks</t>
+  </si>
+  <si>
+    <t>Grilled Pork Neck</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=pork-neck+food</t>
+  </si>
+  <si>
+    <t>Rice Dishes</t>
+  </si>
+  <si>
+    <t>Chicken Danbauk</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=danbauk+food</t>
+  </si>
+  <si>
+    <t>Curries</t>
+  </si>
+  <si>
+    <t>Mutton Curry</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=mutton+food</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=feel-mohinga+food</t>
+  </si>
+  <si>
+    <t>Nan Gyi Thoke</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=nangyi+food</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Shwe Yin Aye</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=dessert+food</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Fried Rice with Egg</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=fried-rice+food</t>
+  </si>
+  <si>
+    <t>Kyar Zan Chat</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=kyarzan+food</t>
+  </si>
+  <si>
+    <t>Mandalay Mee Shay</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=meeshay+food</t>
+  </si>
+  <si>
+    <t>Mandalay Meeshay (Soup)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=meeshay-soup+food</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Tea Leaf Pack (Spicy)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=tealeaf+food</t>
+  </si>
+  <si>
+    <t>Pickled Mango</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=mango+food</t>
   </si>
   <si>
     <t>Beverages</t>
   </si>
   <si>
-    <t>Cappuccino</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>Pastries</t>
-  </si>
-  <si>
-    <t>Croissant</t>
-  </si>
-  <si>
-    <t>3000</t>
+    <t>Royal Myanmar Tea Mix</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=teamix+food</t>
+  </si>
+  <si>
+    <t>Pennywort Salad</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=pennywort+food</t>
+  </si>
+  <si>
+    <t>Pone Yay Gyi (Bean Paste)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=poneyaygyi+food</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Tom Yum Kung</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=tomyum+food</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=mohinga2+food</t>
+  </si>
+  <si>
+    <t>Coconut Noodle</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=coconut+food</t>
+  </si>
+  <si>
+    <t>Ginger Salad</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=ginger+food</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Roselle Leaves (Bundle)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=roselle+food</t>
+  </si>
+  <si>
+    <t>Sour Bamboo Shoot</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=bamboo+food</t>
+  </si>
+  <si>
+    <t>Dry Goods</t>
+  </si>
+  <si>
+    <t>Dried Fish (small)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=dried-fish+food</t>
+  </si>
+  <si>
+    <t>Spices</t>
+  </si>
+  <si>
+    <t>Masala Powder</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=masala+food</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Thanaka Paste</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=thanaka+food</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Longyi (Men)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=longyi+food</t>
+  </si>
+  <si>
+    <t>Sunflower Seeds</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=sunflower+food</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Myanmar Tea (Ready Made)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=tea+food</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Burmese Balm</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=balm+food</t>
+  </si>
+  <si>
+    <t>Fried Beans</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=beans+food</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Fish Paste (Ngapi)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=ngapi+food</t>
+  </si>
+  <si>
+    <t>Rice Vermicelli</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=verm+food</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Sim Card Topup</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=sim+food</t>
+  </si>
+  <si>
+    <t>Money Transfer</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=money+food</t>
+  </si>
+  <si>
+    <t>Fresh Mackerel (kg)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=fish+food</t>
+  </si>
+  <si>
+    <t>Blue Crab (kg)</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=crab+food</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=mohinga3+food</t>
+  </si>
+  <si>
+    <t>Fried Gourd</t>
+  </si>
+  <si>
+    <t>https://placehold.co/600x400?text=gourd+food</t>
   </si>
   <si>
     <t>dayOfWeek</t>
@@ -263,9 +1142,6 @@
   </si>
   <si>
     <t>21:00</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>00:00</t>
@@ -359,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -386,6 +1262,7 @@
     <col min="19" max="19" width="15.625" customWidth="true"/>
     <col min="20" max="20" width="15.625" customWidth="true"/>
     <col min="21" max="21" width="15.625" customWidth="true"/>
+    <col min="22" max="22" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -452,135 +1329,1368 @@
       <c r="U1" t="s" s="1">
         <v>20</v>
       </c>
+      <c r="V1" t="s" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="E2" t="n" s="0">
+        <v>13.7795</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>100.575</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="K2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="M2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="N2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="O2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="P2" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="P2" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="Q2" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>37</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>13.742</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>100.562</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="H3" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="J3" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="K3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="M3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="K3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s" s="0">
+      <c r="O3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="P3" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="Q3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="O3" t="s" s="0">
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="P3" t="s" s="0">
+      <c r="B4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="Q3" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="R3" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="U3" t="s" s="0">
-        <v>37</v>
+      <c r="D4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>13.745</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>100.54</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>13.754</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>100.542</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>13.75</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>100.539</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V6" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>13.751</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>100.538</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="Q7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>13.752</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>100.537</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="Q8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>13.715</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>100.596</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="Q9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V9" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>13.72</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>100.58</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="P10" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="Q10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V10" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>13.713</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>100.594</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="P11" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="Q11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>13.733</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>100.529</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="P12" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="Q12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>13.7142</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>100.5951</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="P13" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="Q13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>13.7143</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>100.5952</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="P14" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="Q14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>13.6706</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>100.4183</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="O15" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="P15" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="Q15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>13.6707</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>100.4184</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="O16" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="P16" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="Q16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>13.716</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>100.597</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="O17" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="P17" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="Q17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>13.755</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>100.545</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="O18" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="P18" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="Q18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>13.756</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>100.546</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="O19" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="P19" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="Q19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>13.5475</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>100.2736</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="O20" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="P20" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="Q20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>13.76</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>100.62</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="O21" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="P21" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="Q21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,162 +2714,1341 @@
     <col min="6" max="6" width="15.625" customWidth="true"/>
     <col min="7" max="7" width="15.625" customWidth="true"/>
     <col min="8" max="8" width="15.625" customWidth="true"/>
+    <col min="9" max="9" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>61</v>
+        <v>255</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>64</v>
+        <v>258</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>80.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>37</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>67</v>
+        <v>261</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>80.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>37</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>70</v>
+        <v>264</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>60.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>73</v>
+        <v>267</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>150.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>76</v>
+        <v>269</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>150.0</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>53</v>
+      <c r="B11" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +4058,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,120 +4073,2398 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="3">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>80</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>83</v>
+        <v>24</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>6.0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B94" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B95" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B96" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B97" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B98" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B99" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B100" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B101" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B102" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B103" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B104" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B105" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B106" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B107" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B108" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B109" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B110" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B111" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B112" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B113" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B114" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B115" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B116" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B117" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B118" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B119" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B120" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B121" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B122" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B123" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B124" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B125" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B126" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B127" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B128" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B129" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B130" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B131" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B132" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B133" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B134" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B135" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B136" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B137" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B138" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B139" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B140" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B141" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E141" t="s" s="0">
         <v>37</v>
       </c>
     </row>
